--- a/fuction_ensemble_1/redes-ensemble-s/Teste03/content/results/metrics_8_3.xlsx
+++ b/fuction_ensemble_1/redes-ensemble-s/Teste03/content/results/metrics_8_3.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_24</t>
+          <t>model_8_3_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999998902491118</v>
+        <v>0.6948126274142842</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6838975624151464</v>
+        <v>-0.1901827686116564</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999995179521961</v>
+        <v>0.7621987492509137</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999996273245463</v>
+        <v>-0.03418393054249513</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999995999527284</v>
+        <v>0.6262424354108755</v>
       </c>
       <c r="G2" t="n">
-        <v>6.515286819132538e-08</v>
+        <v>0.1811724077749274</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1876520618646727</v>
+        <v>0.7065439046664395</v>
       </c>
       <c r="I2" t="n">
-        <v>2.377490897542947e-07</v>
+        <v>0.2159342594514098</v>
       </c>
       <c r="J2" t="n">
-        <v>1.691945200967891e-07</v>
+        <v>0.297292555677971</v>
       </c>
       <c r="K2" t="n">
-        <v>2.03429453898413e-07</v>
+        <v>0.2566134075646904</v>
       </c>
       <c r="L2" t="n">
-        <v>9.420054730078328e-05</v>
+        <v>0.2396373462370548</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0002552505988069869</v>
+        <v>0.4256435219463905</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000000064244422</v>
+        <v>0.3341366416311655</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0002661171452397817</v>
+        <v>0.4437640478792063</v>
       </c>
       <c r="P2" t="n">
-        <v>163.0930590198381</v>
+        <v>29.41661234388215</v>
       </c>
       <c r="Q2" t="n">
-        <v>242.3199876362711</v>
+        <v>45.26199806716875</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_23</t>
+          <t>model_8_3_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999998912975474</v>
+        <v>0.7062455057432535</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6838961785846394</v>
+        <v>-1.035268289384783</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999995228780412</v>
+        <v>0.6697359796826888</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999996306620095</v>
+        <v>0.05933446109215501</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999996037480684</v>
+        <v>0.5846760796079158</v>
       </c>
       <c r="G3" t="n">
-        <v>6.453047153628839e-08</v>
+        <v>0.1743853573242231</v>
       </c>
       <c r="H3" t="n">
-        <v>0.18765288336624</v>
+        <v>1.208223175591038</v>
       </c>
       <c r="I3" t="n">
-        <v>2.353196311762842e-07</v>
+        <v>0.2998946238761024</v>
       </c>
       <c r="J3" t="n">
-        <v>1.676793130195543e-07</v>
+        <v>0.2704092123665211</v>
       </c>
       <c r="K3" t="n">
-        <v>2.014994720979193e-07</v>
+        <v>0.2851519181213118</v>
       </c>
       <c r="L3" t="n">
-        <v>9.409024409140361e-05</v>
+        <v>0.227328345095974</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0002540284856788474</v>
+        <v>0.4175947285637392</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000000063630704</v>
+        <v>0.3590811034398259</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0002648430042256543</v>
+        <v>0.4353726006989564</v>
       </c>
       <c r="P3" t="n">
-        <v>163.1122565955679</v>
+        <v>29.49297546265801</v>
       </c>
       <c r="Q3" t="n">
-        <v>242.3391852120009</v>
+        <v>45.33836118594462</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_22</t>
+          <t>model_8_3_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999998926439547</v>
+        <v>0.7144737080254379</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6838942249146651</v>
+        <v>-4.271733951018374</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999995293331911</v>
+        <v>0.6734123019087885</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999996348320677</v>
+        <v>0.06341838507911868</v>
       </c>
       <c r="F4" t="n">
-        <v>0.999999608739997</v>
+        <v>0.5879621305258433</v>
       </c>
       <c r="G4" t="n">
-        <v>6.373118598932647e-08</v>
+        <v>0.1695007410096873</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1876540431491309</v>
+        <v>3.129529000373632</v>
       </c>
       <c r="I4" t="n">
-        <v>2.32135909520998e-07</v>
+        <v>0.2965563575091387</v>
       </c>
       <c r="J4" t="n">
-        <v>1.657861081003763e-07</v>
+        <v>0.2692352237138043</v>
       </c>
       <c r="K4" t="n">
-        <v>1.989610088106872e-07</v>
+        <v>0.2828957906114715</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389408380125541e-05</v>
+        <v>0.2236639332784793</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0002524503634169032</v>
+        <v>0.4117046769344348</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000000062842563</v>
+        <v>0.3770335447827735</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0002631976980318557</v>
+        <v>0.4292317973777047</v>
       </c>
       <c r="P4" t="n">
-        <v>163.1371836364019</v>
+        <v>29.54979596086524</v>
       </c>
       <c r="Q4" t="n">
-        <v>242.3641122528349</v>
+        <v>45.39518168415184</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_21</t>
+          <t>model_8_3_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999998936130724</v>
+        <v>0.7226290656674865</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6838920064633558</v>
+        <v>-9.440226080644647</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999995339025344</v>
+        <v>0.6920697756683002</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999996379862655</v>
+        <v>0.05515469886337609</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999996123639263</v>
+        <v>0.5985700423855723</v>
       </c>
       <c r="G5" t="n">
-        <v>6.315587586923758e-08</v>
+        <v>0.1646593684202607</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1876553601176602</v>
+        <v>6.197769195754447</v>
       </c>
       <c r="I5" t="n">
-        <v>2.298822799498816e-07</v>
+        <v>0.2796145299670069</v>
       </c>
       <c r="J5" t="n">
-        <v>1.643541034546993e-07</v>
+        <v>0.2716107512402378</v>
       </c>
       <c r="K5" t="n">
-        <v>1.971181917022905e-07</v>
+        <v>0.2756126406036223</v>
       </c>
       <c r="L5" t="n">
-        <v>9.379354061178199e-05</v>
+        <v>0.2245316551606437</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0002513083282926326</v>
+        <v>0.4057824151195573</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000000062275275</v>
+        <v>0.3948270523654251</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0002620070441080063</v>
+        <v>0.4230574126165959</v>
       </c>
       <c r="P5" t="n">
-        <v>163.1553198925028</v>
+        <v>29.60775274555798</v>
       </c>
       <c r="Q5" t="n">
-        <v>242.3822485089358</v>
+        <v>45.45313846884459</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_20</t>
+          <t>model_8_3_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999998948560008</v>
+        <v>0.7255526450967056</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6838899691686312</v>
+        <v>-13.96131537757403</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999995401752576</v>
+        <v>0.6992204917930678</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999996415635896</v>
+        <v>0.05041800875480973</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999996168809571</v>
+        <v>0.6023070849078082</v>
       </c>
       <c r="G6" t="n">
-        <v>6.241801992604063e-08</v>
+        <v>0.1629238053790208</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1876565695438152</v>
+        <v>8.881683103300198</v>
       </c>
       <c r="I6" t="n">
-        <v>2.267885323313169e-07</v>
+        <v>0.2731213572604504</v>
       </c>
       <c r="J6" t="n">
-        <v>1.627299996007354e-07</v>
+        <v>0.2729723878565519</v>
       </c>
       <c r="K6" t="n">
-        <v>1.948212204309167e-07</v>
+        <v>0.2730468725585012</v>
       </c>
       <c r="L6" t="n">
-        <v>9.360554831138879e-05</v>
+        <v>0.2249994638493906</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0002498359860509303</v>
+        <v>0.4036382109996783</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000000061547707</v>
+        <v>0.4012057711200849</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0002604720212089062</v>
+        <v>0.4208219252882192</v>
       </c>
       <c r="P6" t="n">
-        <v>163.1788236447883</v>
+        <v>29.62894527825482</v>
       </c>
       <c r="Q6" t="n">
-        <v>242.4057522612214</v>
+        <v>45.47433100154143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_19</t>
+          <t>model_8_3_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999998961417745</v>
+        <v>0.7259886357962837</v>
       </c>
       <c r="C7" t="n">
-        <v>0.68388752785403</v>
+        <v>-17.89980459417615</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999995463636495</v>
+        <v>0.699971672533179</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999996456575803</v>
+        <v>0.04831789586092738</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999996218313996</v>
+        <v>0.6023641762788824</v>
       </c>
       <c r="G7" t="n">
-        <v>6.165472909194372e-08</v>
+        <v>0.1626649824659337</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1876580188136219</v>
+        <v>11.21974043615065</v>
       </c>
       <c r="I7" t="n">
-        <v>2.237363774579733e-07</v>
+        <v>0.2724392512735427</v>
       </c>
       <c r="J7" t="n">
-        <v>1.608713293341774e-07</v>
+        <v>0.2735760985805302</v>
       </c>
       <c r="K7" t="n">
-        <v>1.923038533960754e-07</v>
+        <v>0.2730076749270365</v>
       </c>
       <c r="L7" t="n">
-        <v>9.349100871846015e-05</v>
+        <v>0.2252553079604455</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0002483037033391643</v>
+        <v>0.4033174710645867</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000000060795059</v>
+        <v>0.4021570235555281</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0002588745060498378</v>
+        <v>0.4204875307900675</v>
       </c>
       <c r="P7" t="n">
-        <v>163.2034318031369</v>
+        <v>29.63212503108746</v>
       </c>
       <c r="Q7" t="n">
-        <v>242.43036041957</v>
+        <v>45.47751075437407</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_18</t>
+          <t>model_8_3_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999998984824436</v>
+        <v>0.7253392809612975</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6838833342109201</v>
+        <v>-28.98749960535507</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999995567548253</v>
+        <v>0.6973124768697426</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999996538706017</v>
+        <v>0.04688933121467986</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999996305368745</v>
+        <v>0.6003066266823105</v>
       </c>
       <c r="G8" t="n">
-        <v>6.026520678759797e-08</v>
+        <v>0.1630504675466498</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1876605083413278</v>
+        <v>17.8018751582717</v>
       </c>
       <c r="I8" t="n">
-        <v>2.186113824752693e-07</v>
+        <v>0.2748539208537563</v>
       </c>
       <c r="J8" t="n">
-        <v>1.57142620592879e-07</v>
+        <v>0.2739867621212133</v>
       </c>
       <c r="K8" t="n">
-        <v>1.878770015340741e-07</v>
+        <v>0.2744203414874848</v>
       </c>
       <c r="L8" t="n">
-        <v>9.298732923236282e-05</v>
+        <v>0.2255030345317167</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0002454897284767694</v>
+        <v>0.4037950811323112</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000000059424911</v>
+        <v>0.4007402493701037</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0002559407344518197</v>
+        <v>0.4209854737071642</v>
       </c>
       <c r="P8" t="n">
-        <v>163.2490218032139</v>
+        <v>29.62739101849234</v>
       </c>
       <c r="Q8" t="n">
-        <v>242.4759504196469</v>
+        <v>45.47277674177894</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_17</t>
+          <t>model_8_3_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999998999318332</v>
+        <v>0.7236001369956551</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6838807060558825</v>
+        <v>-69.84798234897733</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999995638646746</v>
+        <v>0.6933361990114222</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999996584158913</v>
+        <v>0.03433901773504189</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999996360138018</v>
+        <v>0.5950498059881295</v>
       </c>
       <c r="G9" t="n">
-        <v>5.940478648298304e-08</v>
+        <v>0.1640828985317627</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1876620685276885</v>
+        <v>42.05842279583409</v>
       </c>
       <c r="I9" t="n">
-        <v>2.151047588925035e-07</v>
+        <v>0.2784645604614319</v>
       </c>
       <c r="J9" t="n">
-        <v>1.55079060771335e-07</v>
+        <v>0.2775945485687981</v>
       </c>
       <c r="K9" t="n">
-        <v>1.850919098319192e-07</v>
+        <v>0.278029554515115</v>
       </c>
       <c r="L9" t="n">
-        <v>9.283194725403107e-05</v>
+        <v>0.2253462791411365</v>
       </c>
       <c r="M9" t="n">
-        <v>0.000243730971530052</v>
+        <v>0.405071473362125</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000000058576488</v>
+        <v>0.3969457534450657</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0002541071035807519</v>
+        <v>0.4223162045966973</v>
       </c>
       <c r="P9" t="n">
-        <v>163.2777820666053</v>
+        <v>29.61476700003425</v>
       </c>
       <c r="Q9" t="n">
-        <v>242.5047106830384</v>
+        <v>45.46015272332086</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_16</t>
+          <t>model_8_3_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.999999901536047</v>
+        <v>0.723609841895279</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6838778780234617</v>
+        <v>-83.21288689501593</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999995716131954</v>
+        <v>0.6929708631925138</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999996636350933</v>
+        <v>0.03421739353415598</v>
       </c>
       <c r="F10" t="n">
-        <v>0.999999642101286</v>
+        <v>0.5947827535554797</v>
       </c>
       <c r="G10" t="n">
-        <v>5.845245592680271e-08</v>
+        <v>0.1640771372841161</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1876637473698982</v>
+        <v>49.9924074681777</v>
       </c>
       <c r="I10" t="n">
-        <v>2.112831383823573e-07</v>
+        <v>0.2787963018600097</v>
       </c>
       <c r="J10" t="n">
-        <v>1.5270954495971e-07</v>
+        <v>0.2776295113722664</v>
       </c>
       <c r="K10" t="n">
-        <v>1.819963416710336e-07</v>
+        <v>0.2782129066161381</v>
       </c>
       <c r="L10" t="n">
-        <v>9.267059173801726e-05</v>
+        <v>0.2252597107456837</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0002417694271962498</v>
+        <v>0.4050643619032858</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000000057637436</v>
+        <v>0.3969669277715179</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0002520620522437031</v>
+        <v>0.4223087903883326</v>
       </c>
       <c r="P10" t="n">
-        <v>163.3101042646877</v>
+        <v>29.61483722488821</v>
       </c>
       <c r="Q10" t="n">
-        <v>242.5370328811208</v>
+        <v>45.46022294817481</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_15</t>
+          <t>model_8_3_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999999038270884</v>
+        <v>0.7245387591247772</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6838736145744038</v>
+        <v>-116.2743729545655</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999995823113618</v>
+        <v>0.6931729368851951</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999996714120112</v>
+        <v>0.04125832313014599</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999996507609596</v>
+        <v>0.5963903797007184</v>
       </c>
       <c r="G11" t="n">
-        <v>5.7092394773291e-08</v>
+        <v>0.163525691889551</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1876662783374304</v>
+        <v>69.61913377495983</v>
       </c>
       <c r="I11" t="n">
-        <v>2.060067336574428e-07</v>
+        <v>0.2786128098344368</v>
       </c>
       <c r="J11" t="n">
-        <v>1.491788271090214e-07</v>
+        <v>0.2756054846086302</v>
       </c>
       <c r="K11" t="n">
-        <v>1.775927803832321e-07</v>
+        <v>0.2771091472215335</v>
       </c>
       <c r="L11" t="n">
-        <v>9.233109877951131e-05</v>
+        <v>0.2248295820025056</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0002389401489354416</v>
+        <v>0.4043831004005373</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000000056296338</v>
+        <v>0.3989936562722411</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0002491123257499189</v>
+        <v>0.4215985261730063</v>
       </c>
       <c r="P11" t="n">
-        <v>163.3571898410323</v>
+        <v>29.62157032810079</v>
       </c>
       <c r="Q11" t="n">
-        <v>242.5841184574653</v>
+        <v>45.46695605138739</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_14</t>
+          <t>model_8_3_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999999090709198</v>
+        <v>0.7251955680735438</v>
       </c>
       <c r="C12" t="n">
-        <v>0.683864288106943</v>
+        <v>-135.7136521919151</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999996050879637</v>
+        <v>0.6938926078410408</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999996903455026</v>
+        <v>0.0431995957598249</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999996703707862</v>
+        <v>0.5972726863985716</v>
       </c>
       <c r="G12" t="n">
-        <v>5.397942989018712e-08</v>
+        <v>0.163135781724894</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1876718149313975</v>
+        <v>81.15912966338939</v>
       </c>
       <c r="I12" t="n">
-        <v>1.947731665192434e-07</v>
+        <v>0.2779593161525923</v>
       </c>
       <c r="J12" t="n">
-        <v>1.405830288975904e-07</v>
+        <v>0.2750474350351446</v>
       </c>
       <c r="K12" t="n">
-        <v>1.676209180907107e-07</v>
+        <v>0.2765033755938685</v>
       </c>
       <c r="L12" t="n">
-        <v>9.073967595439589e-05</v>
+        <v>0.2249340958507396</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0002323347367273932</v>
+        <v>0.4039007077548812</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000000053226779</v>
+        <v>0.4004266939786411</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0002422257074690856</v>
+        <v>0.4210955970737342</v>
       </c>
       <c r="P12" t="n">
-        <v>163.4693255818262</v>
+        <v>29.6263448164482</v>
       </c>
       <c r="Q12" t="n">
-        <v>242.6962541982593</v>
+        <v>45.4717305397348</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_13</t>
+          <t>model_8_3_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999999120344</v>
+        <v>0.7252497284580763</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6838600793722098</v>
+        <v>-137.9951379319009</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999996191944397</v>
+        <v>0.6937966129982158</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999997002238857</v>
+        <v>0.0433573360968299</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999996815089638</v>
+        <v>0.5972422290154759</v>
       </c>
       <c r="G13" t="n">
-        <v>5.222018006590056e-08</v>
+        <v>0.1631036297810286</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1876743134181429</v>
+        <v>82.51351815369729</v>
       </c>
       <c r="I13" t="n">
-        <v>1.878157614674415e-07</v>
+        <v>0.2780464837988148</v>
       </c>
       <c r="J13" t="n">
-        <v>1.360982465283896e-07</v>
+        <v>0.2750020900761515</v>
       </c>
       <c r="K13" t="n">
-        <v>1.619570039979155e-07</v>
+        <v>0.2765242869374831</v>
       </c>
       <c r="L13" t="n">
-        <v>9.01823384790955e-05</v>
+        <v>0.22453616902749</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0002285173517829676</v>
+        <v>0.4038609040016483</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000000051492059</v>
+        <v>0.4005448620903485</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0002382458085444996</v>
+        <v>0.4210540987923211</v>
       </c>
       <c r="P13" t="n">
-        <v>163.5355936509284</v>
+        <v>29.62673902932175</v>
       </c>
       <c r="Q13" t="n">
-        <v>242.7625222673614</v>
+        <v>45.47212475260836</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999999168168316</v>
+        <v>0.7251446871222536</v>
       </c>
       <c r="C14" t="n">
-        <v>0.683850930184742</v>
+        <v>-160.0871008862094</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999996409577758</v>
+        <v>0.6929533177841748</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999997168110358</v>
+        <v>0.0420325241394931</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999996994675594</v>
+        <v>0.596407225803208</v>
       </c>
       <c r="G14" t="n">
-        <v>4.938112206423166e-08</v>
+        <v>0.1631659868555225</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1876797447710482</v>
+        <v>95.62826168648361</v>
       </c>
       <c r="I14" t="n">
-        <v>1.770819435253972e-07</v>
+        <v>0.2788122338820009</v>
       </c>
       <c r="J14" t="n">
-        <v>1.285676864692374e-07</v>
+        <v>0.2753829282626265</v>
       </c>
       <c r="K14" t="n">
-        <v>1.528248149973173e-07</v>
+        <v>0.2770975810723137</v>
       </c>
       <c r="L14" t="n">
-        <v>8.870910613827432e-05</v>
+        <v>0.2243820591034436</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0002222186357266907</v>
+        <v>0.4039380978015351</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000000048692586</v>
+        <v>0.4003156809940078</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0002316789431055672</v>
+        <v>0.4211345788920822</v>
       </c>
       <c r="P14" t="n">
-        <v>163.6473952604742</v>
+        <v>29.62597454409759</v>
       </c>
       <c r="Q14" t="n">
-        <v>242.8743238769072</v>
+        <v>45.47136026738419</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_11</t>
+          <t>model_8_3_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999999278622934</v>
+        <v>0.7253702618896183</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6838238178205641</v>
+        <v>-183.847827935247</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999996869618033</v>
+        <v>0.693704290937067</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999997581394616</v>
+        <v>0.04116053766345651</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999997402261336</v>
+        <v>0.5967212845756664</v>
       </c>
       <c r="G15" t="n">
-        <v>4.282405884636113e-08</v>
+        <v>0.1630320759292922</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1876958398416173</v>
+        <v>109.7336556727565</v>
       </c>
       <c r="I15" t="n">
-        <v>1.543924600890663e-07</v>
+        <v>0.2781303163936493</v>
       </c>
       <c r="J15" t="n">
-        <v>1.098045962383219e-07</v>
+        <v>0.2756335945902705</v>
       </c>
       <c r="K15" t="n">
-        <v>1.320985281636941e-07</v>
+        <v>0.2768819554919599</v>
       </c>
       <c r="L15" t="n">
-        <v>8.384370555396495e-05</v>
+        <v>0.224286255296704</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0002069397468983692</v>
+        <v>0.4037723070361466</v>
       </c>
       <c r="N15" t="n">
-        <v>1.00000004222695</v>
+        <v>0.4008078441228036</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0002157496003481641</v>
+        <v>0.420961730070577</v>
       </c>
       <c r="P15" t="n">
-        <v>163.9323315394237</v>
+        <v>29.62761662538538</v>
       </c>
       <c r="Q15" t="n">
-        <v>243.1592601558567</v>
+        <v>45.47300234867198</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_10</t>
+          <t>model_8_3_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999999331437979</v>
+        <v>0.7253024696277237</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6838127860508483</v>
+        <v>-218.4853204233263</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999997110982006</v>
+        <v>0.6929538667950073</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999997768041866</v>
+        <v>0.03953212065695921</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999997602629702</v>
+        <v>0.595884136695462</v>
       </c>
       <c r="G16" t="n">
-        <v>3.968872962986144e-08</v>
+        <v>0.1630723203444261</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1877023887766683</v>
+        <v>130.2959674754468</v>
       </c>
       <c r="I16" t="n">
-        <v>1.424882330947383e-07</v>
+        <v>0.2788117353554071</v>
       </c>
       <c r="J16" t="n">
-        <v>1.013308178771081e-07</v>
+        <v>0.2761017088582201</v>
       </c>
       <c r="K16" t="n">
-        <v>1.219095254859232e-07</v>
+        <v>0.2774567221068135</v>
       </c>
       <c r="L16" t="n">
-        <v>8.193724331930767e-05</v>
+        <v>0.2241175053446829</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0001992203042610402</v>
+        <v>0.4038221394926559</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000000039135338</v>
+        <v>0.4006599337332154</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0002077015250563148</v>
+        <v>0.4210136839979273</v>
       </c>
       <c r="P16" t="n">
-        <v>164.0843971559476</v>
+        <v>29.62712298695795</v>
       </c>
       <c r="Q16" t="n">
-        <v>243.3113257723807</v>
+        <v>45.47250871024455</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_9</t>
+          <t>model_8_3_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999999394726383</v>
+        <v>0.7253641366904808</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6837974386121025</v>
+        <v>-262.3011728194459</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999997389851187</v>
+        <v>0.6925834491626345</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999997999920844</v>
+        <v>0.04025295838879939</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999997840768023</v>
+        <v>0.5957900906833844</v>
       </c>
       <c r="G17" t="n">
-        <v>3.593165651815385e-08</v>
+        <v>0.163035712112095</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1877114996792826</v>
+        <v>156.3069502040532</v>
       </c>
       <c r="I17" t="n">
-        <v>1.287342249851133e-07</v>
+        <v>0.2791480912697776</v>
       </c>
       <c r="J17" t="n">
-        <v>9.080352071360299e-08</v>
+        <v>0.2758944926317839</v>
       </c>
       <c r="K17" t="n">
-        <v>1.097998694035696e-07</v>
+        <v>0.2775212919507808</v>
       </c>
       <c r="L17" t="n">
-        <v>7.924387670879372e-05</v>
+        <v>0.2236126838878517</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0001895564731634186</v>
+        <v>0.4037768097750228</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000000035430651</v>
+        <v>0.4007944800519582</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0001976262846619792</v>
+        <v>0.4209664245003691</v>
       </c>
       <c r="P17" t="n">
-        <v>164.2832942656877</v>
+        <v>29.62757201892088</v>
       </c>
       <c r="Q17" t="n">
-        <v>243.5102228821207</v>
+        <v>45.47295774220748</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_8</t>
+          <t>model_8_3_22</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999999452617117</v>
+        <v>0.7260259817537476</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6837867040468462</v>
+        <v>-267.6212102181501</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999997659075284</v>
+        <v>0.6935473422058682</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999998207203507</v>
+        <v>0.0436772432251461</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999998064468308</v>
+        <v>0.5971443618304797</v>
       </c>
       <c r="G18" t="n">
-        <v>3.249501254941089e-08</v>
+        <v>0.1626428122923218</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1877178721809278</v>
+        <v>159.4651542175734</v>
       </c>
       <c r="I18" t="n">
-        <v>1.154559187064283e-07</v>
+        <v>0.2782728329192626</v>
       </c>
       <c r="J18" t="n">
-        <v>8.139289540329501e-08</v>
+        <v>0.2749101277037456</v>
       </c>
       <c r="K18" t="n">
-        <v>9.842440705486165e-08</v>
+        <v>0.2765914803115042</v>
       </c>
       <c r="L18" t="n">
-        <v>7.714672166352283e-05</v>
+        <v>0.2237591420876822</v>
       </c>
       <c r="M18" t="n">
-        <v>0.000180263730543365</v>
+        <v>0.4032899853608093</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000000032041925</v>
+        <v>0.4022385056445401</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0001879379307499608</v>
+        <v>0.4204588749629771</v>
       </c>
       <c r="P18" t="n">
-        <v>164.4843584388101</v>
+        <v>29.63239763658912</v>
       </c>
       <c r="Q18" t="n">
-        <v>243.7112870552431</v>
+        <v>45.47778335987573</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_7</t>
+          <t>model_8_3_20</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999999515172168</v>
+        <v>0.7259985616250146</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6837692704821413</v>
+        <v>-267.636622803755</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999997955763233</v>
+        <v>0.6936231706320697</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999998426663157</v>
+        <v>0.04348297774757548</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999998306313407</v>
+        <v>0.5971538370518592</v>
       </c>
       <c r="G19" t="n">
-        <v>2.878147444459669e-08</v>
+        <v>0.1626590900652256</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1877282214980274</v>
+        <v>159.4743037941775</v>
       </c>
       <c r="I19" t="n">
-        <v>1.008230774086676e-07</v>
+        <v>0.2782039772887492</v>
       </c>
       <c r="J19" t="n">
-        <v>7.142943530580787e-08</v>
+        <v>0.2749659723930715</v>
       </c>
       <c r="K19" t="n">
-        <v>8.612625635723772e-08</v>
+        <v>0.2765849748409104</v>
       </c>
       <c r="L19" t="n">
-        <v>7.441404448460588e-05</v>
+        <v>0.2237724930215859</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0001696510372635449</v>
+        <v>0.4033101660821675</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000000028380166</v>
+        <v>0.4021786799091229</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0001768734331459151</v>
+        <v>0.4204799148194234</v>
       </c>
       <c r="P19" t="n">
-        <v>164.7270678104581</v>
+        <v>29.63219748069948</v>
       </c>
       <c r="Q19" t="n">
-        <v>243.9539964268912</v>
+        <v>45.47758320398609</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_6</t>
+          <t>model_8_3_19</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999999556042366</v>
+        <v>0.725972658490627</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6837579793261954</v>
+        <v>-267.6846295254101</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999998156883423</v>
+        <v>0.6936776775145725</v>
       </c>
       <c r="E20" t="n">
-        <v>0.999999858044206</v>
+        <v>0.04318451415667912</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999998472493193</v>
+        <v>0.5971273991053494</v>
       </c>
       <c r="G20" t="n">
-        <v>2.635524297390655e-08</v>
+        <v>0.1626744672847553</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1877349244159495</v>
+        <v>159.5028026579344</v>
       </c>
       <c r="I20" t="n">
-        <v>9.090369979256499e-08</v>
+        <v>0.2781544825814204</v>
       </c>
       <c r="J20" t="n">
-        <v>6.4447878689784e-08</v>
+        <v>0.2750517704809106</v>
       </c>
       <c r="K20" t="n">
-        <v>7.767578924117449e-08</v>
+        <v>0.2766031265311655</v>
       </c>
       <c r="L20" t="n">
-        <v>7.295689450328557e-05</v>
+        <v>0.2237393064064986</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0001623429794413868</v>
+        <v>0.4033292293954844</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000000025987764</v>
+        <v>0.4021221639795498</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0001692542561725026</v>
+        <v>0.4204997896974546</v>
       </c>
       <c r="P20" t="n">
-        <v>164.90319721482</v>
+        <v>29.63200841665498</v>
       </c>
       <c r="Q20" t="n">
-        <v>244.1301258312531</v>
+        <v>45.47739413994158</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_5</t>
+          <t>model_8_3_21</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999999610694651</v>
+        <v>0.7260248903591877</v>
       </c>
       <c r="C21" t="n">
-        <v>0.683739280919839</v>
+        <v>-267.7940938527398</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999998422465156</v>
+        <v>0.6937629232230494</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999998783230287</v>
+        <v>0.04316757436968999</v>
       </c>
       <c r="F21" t="n">
-        <v>0.999999869157519</v>
+        <v>0.5971802244405592</v>
       </c>
       <c r="G21" t="n">
-        <v>2.31108472045372e-08</v>
+        <v>0.1626434601912783</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1877460245976917</v>
+        <v>159.56778541125</v>
       </c>
       <c r="I21" t="n">
-        <v>7.780503720921771e-08</v>
+        <v>0.2780770756339238</v>
       </c>
       <c r="J21" t="n">
-        <v>5.524130057237743e-08</v>
+        <v>0.275056640091062</v>
       </c>
       <c r="K21" t="n">
-        <v>6.653517307400021e-08</v>
+        <v>0.2765668578624929</v>
       </c>
       <c r="L21" t="n">
-        <v>7.04475309448065e-05</v>
+        <v>0.2237562584940788</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0001520225220305768</v>
+        <v>0.4032907886268646</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000000022788606</v>
+        <v>0.402236124420046</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0001584944355234223</v>
+        <v>0.4204597124257313</v>
       </c>
       <c r="P21" t="n">
-        <v>165.1659275073619</v>
+        <v>29.63238966946587</v>
       </c>
       <c r="Q21" t="n">
-        <v>244.392856123795</v>
+        <v>45.47777539275247</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_4</t>
+          <t>model_8_3_17</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999999682086996</v>
+        <v>0.7259188742277294</v>
       </c>
       <c r="C22" t="n">
-        <v>0.683697692123576</v>
+        <v>-267.8243137675449</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999998731600478</v>
+        <v>0.6937450119442324</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999999072610759</v>
+        <v>0.04268075879577649</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999998970905264</v>
+        <v>0.5970664665796486</v>
       </c>
       <c r="G22" t="n">
-        <v>1.887268921305352e-08</v>
+        <v>0.1627063959465704</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1877707135036958</v>
+        <v>159.5857252581106</v>
       </c>
       <c r="I22" t="n">
-        <v>6.255828352621041e-08</v>
+        <v>0.2780933398828081</v>
       </c>
       <c r="J22" t="n">
-        <v>4.210343771267605e-08</v>
+        <v>0.2751965829405285</v>
       </c>
       <c r="K22" t="n">
-        <v>5.233086061944323e-08</v>
+        <v>0.2766449614116683</v>
       </c>
       <c r="L22" t="n">
-        <v>6.519878907527651e-05</v>
+        <v>0.2237599765178722</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0001373779065681725</v>
+        <v>0.4033688088419461</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000000018609542</v>
+        <v>0.4020048164968641</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0001432263684622502</v>
+        <v>0.4205410541228929</v>
       </c>
       <c r="P22" t="n">
-        <v>165.5710999502089</v>
+        <v>29.63161590848347</v>
       </c>
       <c r="Q22" t="n">
-        <v>244.798028566642</v>
+        <v>45.47700163177007</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_3</t>
+          <t>model_8_3_23</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999999714672702</v>
+        <v>0.7260043829249709</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6836798267498887</v>
+        <v>-267.8686286853606</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999998894758519</v>
+        <v>0.6936506796120064</v>
       </c>
       <c r="E23" t="n">
-        <v>0.999999922384167</v>
+        <v>0.04286424117469556</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999999117537917</v>
+        <v>0.5970424976095738</v>
       </c>
       <c r="G23" t="n">
-        <v>1.693826101434144e-08</v>
+        <v>0.1626556342901045</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1877813191612606</v>
+        <v>159.6120325076308</v>
       </c>
       <c r="I23" t="n">
-        <v>5.451122352911683e-08</v>
+        <v>0.278178997894435</v>
       </c>
       <c r="J23" t="n">
-        <v>3.523755988423333e-08</v>
+        <v>0.2751438380237494</v>
       </c>
       <c r="K23" t="n">
-        <v>4.487439170667508e-08</v>
+        <v>0.2766614179590922</v>
       </c>
       <c r="L23" t="n">
-        <v>6.350242348612391e-05</v>
+        <v>0.2236790390938408</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0001301470745516066</v>
+        <v>0.4033058817945809</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000000016702086</v>
+        <v>0.4021913809272094</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0001356877049568533</v>
+        <v>0.4204754481408445</v>
       </c>
       <c r="P23" t="n">
-        <v>165.7873816171596</v>
+        <v>29.63223997216835</v>
       </c>
       <c r="Q23" t="n">
-        <v>245.0143102335927</v>
+        <v>45.47762569545496</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_2</t>
+          <t>model_8_3_24</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999999763069124</v>
+        <v>0.7259623086688438</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6836582548667902</v>
+        <v>-268.0839465031167</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999999150119697</v>
+        <v>0.6935410610287689</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999999422668585</v>
+        <v>0.04259782324986816</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999999330131203</v>
+        <v>0.5969142347715901</v>
       </c>
       <c r="G24" t="n">
-        <v>1.406524026133674e-08</v>
+        <v>0.1626806113860547</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1877941251629247</v>
+        <v>159.7398544654962</v>
       </c>
       <c r="I24" t="n">
-        <v>4.19166453549104e-08</v>
+        <v>0.2782785365113217</v>
       </c>
       <c r="J24" t="n">
-        <v>2.621082519480583e-08</v>
+        <v>0.2752204240771692</v>
       </c>
       <c r="K24" t="n">
-        <v>3.406373527485812e-08</v>
+        <v>0.2767494802942454</v>
       </c>
       <c r="L24" t="n">
-        <v>6.040868626208381e-05</v>
+        <v>0.2235282212339634</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0001185969656497869</v>
+        <v>0.4033368460555702</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000000013869125</v>
+        <v>0.4020995825502047</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0001236458840070617</v>
+        <v>0.420507730614529</v>
       </c>
       <c r="P24" t="n">
-        <v>166.1591186258734</v>
+        <v>29.6319328794748</v>
       </c>
       <c r="Q24" t="n">
-        <v>245.3860472423065</v>
+        <v>45.4773186027614</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_1</t>
+          <t>model_8_3_16</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999999801768283</v>
+        <v>0.7257856682043238</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6836300964519663</v>
+        <v>-268.301169155999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999999354192137</v>
+        <v>0.6934064052364215</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999999604826171</v>
+        <v>0.04215242048323697</v>
       </c>
       <c r="F25" t="n">
-        <v>0.999999951041089</v>
+        <v>0.5967319452723358</v>
       </c>
       <c r="G25" t="n">
-        <v>1.176789103647236e-08</v>
+        <v>0.1627854727962646</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1878108412143444</v>
+        <v>159.8688072157772</v>
       </c>
       <c r="I25" t="n">
-        <v>3.185166084210313e-08</v>
+        <v>0.2784008100431462</v>
       </c>
       <c r="J25" t="n">
-        <v>1.794087744406026e-08</v>
+        <v>0.2753484621590686</v>
       </c>
       <c r="K25" t="n">
-        <v>2.48962691430817e-08</v>
+        <v>0.2768746361011074</v>
       </c>
       <c r="L25" t="n">
-        <v>5.680618305554523e-05</v>
+        <v>0.2233610159074379</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0001084799107506655</v>
+        <v>0.4034668174661512</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000000011603808</v>
+        <v>0.4017141851730701</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0001130981251356939</v>
+        <v>0.4206432351771363</v>
       </c>
       <c r="P25" t="n">
-        <v>166.5157822259948</v>
+        <v>29.63064412566683</v>
       </c>
       <c r="Q25" t="n">
-        <v>245.7427108424278</v>
+        <v>45.47602984895344</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_8_3_0</t>
+          <t>model_8_3_18</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999999816114232</v>
+        <v>0.7258871885957296</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6836132264177959</v>
+        <v>-268.4072757372913</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999999468479168</v>
+        <v>0.693665695333206</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999999710075842</v>
+        <v>0.04221894000045234</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999999612980629</v>
+        <v>0.5969173353525081</v>
       </c>
       <c r="G26" t="n">
-        <v>1.091625354836358e-08</v>
+        <v>0.1627252059064735</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1878208559953755</v>
+        <v>159.931796665998</v>
       </c>
       <c r="I26" t="n">
-        <v>2.621495068191544e-08</v>
+        <v>0.278165362942444</v>
       </c>
       <c r="J26" t="n">
-        <v>1.316254619664629e-08</v>
+        <v>0.2753293400699591</v>
       </c>
       <c r="K26" t="n">
-        <v>1.968045902248879e-08</v>
+        <v>0.2767473515062016</v>
       </c>
       <c r="L26" t="n">
-        <v>5.552459360890647e-05</v>
+        <v>0.2234170196283572</v>
       </c>
       <c r="M26" t="n">
-        <v>0.00010448087647203</v>
+        <v>0.4033921242494373</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000000010764045</v>
+        <v>0.4019356842088647</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0001089288436886747</v>
+        <v>0.4205653621155506</v>
       </c>
       <c r="P26" t="n">
-        <v>166.6660260142946</v>
+        <v>29.63138470831954</v>
       </c>
       <c r="Q26" t="n">
-        <v>245.8929546307277</v>
+        <v>45.47677043160614</v>
       </c>
     </row>
   </sheetData>
